--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H2">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I2">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J2">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N2">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q2">
-        <v>23.66878387144478</v>
+        <v>90.82220660294644</v>
       </c>
       <c r="R2">
-        <v>213.019054843003</v>
+        <v>817.399859426518</v>
       </c>
       <c r="S2">
-        <v>5.513669376609408E-05</v>
+        <v>0.0001749368157443248</v>
       </c>
       <c r="T2">
-        <v>5.513669376609408E-05</v>
+        <v>0.0001749368157443248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H3">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I3">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J3">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P3">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q3">
-        <v>26.00531456688356</v>
+        <v>59.31862282433423</v>
       </c>
       <c r="R3">
-        <v>234.0478311019521</v>
+        <v>533.867605419008</v>
       </c>
       <c r="S3">
-        <v>6.057966785927984E-05</v>
+        <v>0.000114256318794296</v>
       </c>
       <c r="T3">
-        <v>6.057966785927984E-05</v>
+        <v>0.0001142563187942959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H4">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I4">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J4">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N4">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q4">
-        <v>253.0558032072206</v>
+        <v>628.8970079085952</v>
       </c>
       <c r="R4">
-        <v>2277.502228864986</v>
+        <v>5660.073071177358</v>
       </c>
       <c r="S4">
-        <v>0.0005894962919494434</v>
+        <v>0.001211347357762765</v>
       </c>
       <c r="T4">
-        <v>0.0005894962919494434</v>
+        <v>0.001211347357762765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H5">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I5">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J5">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N5">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O5">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P5">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q5">
-        <v>3.919247509478335</v>
+        <v>6.824720523931776</v>
       </c>
       <c r="R5">
-        <v>35.27322758530501</v>
+        <v>61.42248471538599</v>
       </c>
       <c r="S5">
-        <v>9.129930413718509E-06</v>
+        <v>1.314540707011223E-05</v>
       </c>
       <c r="T5">
-        <v>9.129930413718509E-06</v>
+        <v>1.314540707011222E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H6">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I6">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J6">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N6">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O6">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P6">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q6">
-        <v>528.5229693601422</v>
+        <v>1318.031890837714</v>
       </c>
       <c r="R6">
-        <v>4756.70672424128</v>
+        <v>11862.28701753943</v>
       </c>
       <c r="S6">
-        <v>0.001231200101713467</v>
+        <v>0.00253872164811663</v>
       </c>
       <c r="T6">
-        <v>0.001231200101713467</v>
+        <v>0.002538721648116629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.691042333333334</v>
+        <v>6.138319333333333</v>
       </c>
       <c r="H7">
-        <v>8.073127000000001</v>
+        <v>18.414958</v>
       </c>
       <c r="I7">
-        <v>0.002563467013859998</v>
+        <v>0.004764958906502185</v>
       </c>
       <c r="J7">
-        <v>0.002563467013859997</v>
+        <v>0.004764958906502184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N7">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q7">
-        <v>265.2592379609305</v>
+        <v>369.9363479793093</v>
       </c>
       <c r="R7">
-        <v>2387.333141648375</v>
+        <v>3329.427131813784</v>
       </c>
       <c r="S7">
-        <v>0.0006179243281579949</v>
+        <v>0.0007125513590140562</v>
       </c>
       <c r="T7">
-        <v>0.0006179243281579949</v>
+        <v>0.0007125513590140561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.44662</v>
       </c>
       <c r="I8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J8">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N8">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q8">
-        <v>1.309399970131111</v>
+        <v>2.202720957224444</v>
       </c>
       <c r="R8">
-        <v>11.78459973118</v>
+        <v>19.82448861502</v>
       </c>
       <c r="S8">
-        <v>3.050261710216244E-06</v>
+        <v>4.242761816113313E-06</v>
       </c>
       <c r="T8">
-        <v>3.050261710216244E-06</v>
+        <v>4.242761816113313E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.44662</v>
       </c>
       <c r="I9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J9">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P9">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q9">
         <v>1.438661077902222</v>
@@ -1013,10 +1013,10 @@
         <v>12.94794970112</v>
       </c>
       <c r="S9">
-        <v>3.351376890182894E-06</v>
+        <v>2.771071055383806E-06</v>
       </c>
       <c r="T9">
-        <v>3.351376890182894E-06</v>
+        <v>2.771071055383806E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.44662</v>
       </c>
       <c r="I10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J10">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N10">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q10">
-        <v>13.99950512712222</v>
+        <v>15.25270824251333</v>
       </c>
       <c r="R10">
-        <v>125.9955461441</v>
+        <v>137.27437418262</v>
       </c>
       <c r="S10">
-        <v>3.261200200498027E-05</v>
+        <v>2.937894058319363E-05</v>
       </c>
       <c r="T10">
-        <v>3.261200200498027E-05</v>
+        <v>2.937894058319363E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.44662</v>
       </c>
       <c r="I11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J11">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N11">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O11">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P11">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q11">
-        <v>0.2168198670333334</v>
+        <v>0.1655206968377778</v>
       </c>
       <c r="R11">
-        <v>1.9513788033</v>
+        <v>1.48968627154</v>
       </c>
       <c r="S11">
-        <v>5.050842779229114E-07</v>
+        <v>3.188170022246873E-07</v>
       </c>
       <c r="T11">
-        <v>5.050842779229113E-07</v>
+        <v>3.188170022246873E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.44662</v>
       </c>
       <c r="I12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J12">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N12">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O12">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P12">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q12">
-        <v>29.23884742252</v>
+        <v>31.96637228746</v>
       </c>
       <c r="R12">
-        <v>263.14962680268</v>
+        <v>287.69735058714</v>
       </c>
       <c r="S12">
-        <v>6.811221840400486E-05</v>
+        <v>6.15718951127583E-05</v>
       </c>
       <c r="T12">
-        <v>6.811221840400484E-05</v>
+        <v>6.15718951127583E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.44662</v>
       </c>
       <c r="I13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="J13">
-        <v>0.0001418156357171331</v>
+        <v>0.0001155650719823529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N13">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q13">
-        <v>14.67462122893778</v>
+        <v>8.972106899973333</v>
       </c>
       <c r="R13">
-        <v>132.07159106044</v>
+        <v>80.74896209976001</v>
       </c>
       <c r="S13">
-        <v>3.418469242982597E-05</v>
+        <v>1.728158641267918E-05</v>
       </c>
       <c r="T13">
-        <v>3.418469242982597E-05</v>
+        <v>1.728158641267918E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H14">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J14">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N14">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q14">
-        <v>606.331101398406</v>
+        <v>1471.033092392507</v>
       </c>
       <c r="R14">
-        <v>5456.979912585653</v>
+        <v>13239.29783153256</v>
       </c>
       <c r="S14">
-        <v>0.001412455005725723</v>
+        <v>0.002833424276539476</v>
       </c>
       <c r="T14">
-        <v>0.001412455005725723</v>
+        <v>0.002833424276539476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H15">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J15">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P15">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q15">
-        <v>666.1867846355059</v>
+        <v>960.7744673196945</v>
       </c>
       <c r="R15">
-        <v>5995.681061719553</v>
+        <v>8646.970205877249</v>
       </c>
       <c r="S15">
-        <v>0.001551889481731307</v>
+        <v>0.001850591746753537</v>
       </c>
       <c r="T15">
-        <v>0.001551889481731307</v>
+        <v>0.001850591746753537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H16">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J16">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N16">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q16">
-        <v>6482.614599350193</v>
+        <v>10186.14659281096</v>
       </c>
       <c r="R16">
-        <v>58343.53139415174</v>
+        <v>91675.3193352986</v>
       </c>
       <c r="S16">
-        <v>0.01510132239617109</v>
+        <v>0.01962000392086316</v>
       </c>
       <c r="T16">
-        <v>0.01510132239617109</v>
+        <v>0.01962000392086315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H17">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J17">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N17">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O17">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P17">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q17">
-        <v>100.4006657875617</v>
+        <v>110.5389321900518</v>
       </c>
       <c r="R17">
-        <v>903.6059920880551</v>
+        <v>994.8503897104661</v>
       </c>
       <c r="S17">
-        <v>0.0002338844612172647</v>
+        <v>0.0002129141047810456</v>
       </c>
       <c r="T17">
-        <v>0.0002338844612172647</v>
+        <v>0.0002129141047810456</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H18">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J18">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N18">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O18">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P18">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q18">
-        <v>13539.34853041224</v>
+        <v>21347.95663716063</v>
       </c>
       <c r="R18">
-        <v>121854.1367737102</v>
+        <v>192131.6097344457</v>
       </c>
       <c r="S18">
-        <v>0.03154006212437425</v>
+        <v>0.04111927794354703</v>
       </c>
       <c r="T18">
-        <v>0.03154006212437425</v>
+        <v>0.04111927794354703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>68.93732566666667</v>
+        <v>99.42139933333334</v>
       </c>
       <c r="H19">
-        <v>206.811977</v>
+        <v>298.264198</v>
       </c>
       <c r="I19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193446</v>
       </c>
       <c r="J19">
-        <v>0.06566918631537351</v>
+        <v>0.07717729504193445</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N19">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q19">
-        <v>6795.234042548009</v>
+        <v>5991.80123794459</v>
       </c>
       <c r="R19">
-        <v>61157.10638293208</v>
+        <v>53926.21114150131</v>
       </c>
       <c r="S19">
-        <v>0.01582957284615387</v>
+        <v>0.01154108304945021</v>
       </c>
       <c r="T19">
-        <v>0.01582957284615388</v>
+        <v>0.01154108304945021</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H20">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I20">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J20">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N20">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q20">
-        <v>0.5571238581435557</v>
+        <v>0.7468941360465556</v>
       </c>
       <c r="R20">
-        <v>5.014114723292001</v>
+        <v>6.722047224419</v>
       </c>
       <c r="S20">
-        <v>1.297826188412907E-06</v>
+        <v>1.438627035668765E-06</v>
       </c>
       <c r="T20">
-        <v>1.297826188412907E-06</v>
+        <v>1.438627035668765E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H21">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I21">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J21">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P21">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q21">
-        <v>0.6121219097031113</v>
+        <v>0.4878182682737778</v>
       </c>
       <c r="R21">
-        <v>5.509097187328001</v>
+        <v>4.390364414464</v>
       </c>
       <c r="S21">
-        <v>1.425944757708287E-06</v>
+        <v>9.396091298111778E-07</v>
       </c>
       <c r="T21">
-        <v>1.425944757708287E-06</v>
+        <v>9.396091298111777E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H22">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I22">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J22">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N22">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q22">
-        <v>5.956513278171112</v>
+        <v>5.171857246737667</v>
       </c>
       <c r="R22">
-        <v>53.60861950354001</v>
+        <v>46.54671522063899</v>
       </c>
       <c r="S22">
-        <v>1.387576355067483E-05</v>
+        <v>9.961751338897185E-06</v>
       </c>
       <c r="T22">
-        <v>1.387576355067483E-05</v>
+        <v>9.961751338897184E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H23">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I23">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J23">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N23">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O23">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P23">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q23">
-        <v>0.09225257644666668</v>
+        <v>0.05612442077922222</v>
       </c>
       <c r="R23">
-        <v>0.8302731880200002</v>
+        <v>0.505119787013</v>
       </c>
       <c r="S23">
-        <v>2.149033969932717E-07</v>
+        <v>1.081038198018548E-07</v>
       </c>
       <c r="T23">
-        <v>2.149033969932717E-07</v>
+        <v>1.081038198018548E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H24">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I24">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J24">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N24">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O24">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P24">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q24">
-        <v>12.440552814488</v>
+        <v>10.839092411537</v>
       </c>
       <c r="R24">
-        <v>111.964975330392</v>
+        <v>97.55183170383299</v>
       </c>
       <c r="S24">
-        <v>2.898040535326729E-05</v>
+        <v>2.087767279562269E-05</v>
       </c>
       <c r="T24">
-        <v>2.898040535326728E-05</v>
+        <v>2.087767279562268E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06334266666666667</v>
+        <v>0.05047966666666667</v>
       </c>
       <c r="H25">
-        <v>0.190028</v>
+        <v>0.151439</v>
       </c>
       <c r="I25">
-        <v>6.033975555070391E-05</v>
+        <v>3.918556924440362E-05</v>
       </c>
       <c r="J25">
-        <v>6.03397555507039E-05</v>
+        <v>3.918556924440361E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N25">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q25">
-        <v>6.24376186219289</v>
+        <v>3.042243734774667</v>
       </c>
       <c r="R25">
-        <v>56.19385675973601</v>
+        <v>27.380193612972</v>
       </c>
       <c r="S25">
-        <v>1.454491230364733E-05</v>
+        <v>5.85980512460195E-06</v>
       </c>
       <c r="T25">
-        <v>1.454491230364733E-05</v>
+        <v>5.859805124601949E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H26">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I26">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J26">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N26">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q26">
-        <v>8041.295065198258</v>
+        <v>16609.0694546885</v>
       </c>
       <c r="R26">
-        <v>72371.65558678431</v>
+        <v>149481.6250921965</v>
       </c>
       <c r="S26">
-        <v>0.01873228577778955</v>
+        <v>0.03199149009428796</v>
       </c>
       <c r="T26">
-        <v>0.01873228577778955</v>
+        <v>0.03199149009428797</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H27">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I27">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J27">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>28.990976</v>
       </c>
       <c r="O27">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P27">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q27">
-        <v>8835.114166887881</v>
+        <v>10847.86599331396</v>
       </c>
       <c r="R27">
-        <v>79516.02750199092</v>
+        <v>97630.79393982569</v>
       </c>
       <c r="S27">
-        <v>0.02058149615350054</v>
+        <v>0.02089457199369485</v>
       </c>
       <c r="T27">
-        <v>0.02058149615350054</v>
+        <v>0.02089457199369485</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H28">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I28">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J28">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N28">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q28">
-        <v>85973.84608361761</v>
+        <v>115009.2524162562</v>
       </c>
       <c r="R28">
-        <v>773764.6147525584</v>
+        <v>1035083.271746306</v>
       </c>
       <c r="S28">
-        <v>0.2002770251801861</v>
+        <v>0.2215245935037925</v>
       </c>
       <c r="T28">
-        <v>0.2002770251801861</v>
+        <v>0.2215245935037925</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H29">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I29">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J29">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N29">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O29">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P29">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q29">
-        <v>1331.535486928037</v>
+        <v>1248.067641500615</v>
       </c>
       <c r="R29">
-        <v>11983.81938235233</v>
+        <v>11232.60877350554</v>
       </c>
       <c r="S29">
-        <v>0.00310182664137685</v>
+        <v>0.002403960300063488</v>
       </c>
       <c r="T29">
-        <v>0.00310182664137685</v>
+        <v>0.002403960300063488</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H30">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I30">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J30">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N30">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O30">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P30">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q30">
-        <v>179561.7877303391</v>
+        <v>241034.4786503768</v>
       </c>
       <c r="R30">
-        <v>1616056.089573052</v>
+        <v>2169310.307853391</v>
       </c>
       <c r="S30">
-        <v>0.4182911701739137</v>
+        <v>0.4642675591887945</v>
       </c>
       <c r="T30">
-        <v>0.4182911701739137</v>
+        <v>0.4642675591887945</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>914.2618206666666</v>
+        <v>1122.542338</v>
       </c>
       <c r="H31">
-        <v>2742.785462</v>
+        <v>3367.627014</v>
       </c>
       <c r="I31">
-        <v>0.8709190451149539</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="J31">
-        <v>0.8709190451149538</v>
+        <v>0.8713896786588738</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N31">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q31">
-        <v>90119.8731966484</v>
+        <v>67651.94028222201</v>
       </c>
       <c r="R31">
-        <v>811078.8587698357</v>
+        <v>608867.4625399981</v>
       </c>
       <c r="S31">
-        <v>0.2099352411881871</v>
+        <v>0.1303075035782405</v>
       </c>
       <c r="T31">
-        <v>0.2099352411881871</v>
+        <v>0.1303075035782405</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H32">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I32">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J32">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N32">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q32">
-        <v>559.9527976930138</v>
+        <v>886.5642173797212</v>
       </c>
       <c r="R32">
-        <v>5039.575179237125</v>
+        <v>7979.077956417491</v>
       </c>
       <c r="S32">
-        <v>0.001304416234376758</v>
+        <v>0.001707651982287736</v>
       </c>
       <c r="T32">
-        <v>0.001304416234376758</v>
+        <v>0.001707651982287737</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H33">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I33">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J33">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>28.990976</v>
       </c>
       <c r="O33">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P33">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q33">
-        <v>615.2301159917797</v>
+        <v>579.0408578180552</v>
       </c>
       <c r="R33">
-        <v>5537.071043926017</v>
+        <v>5211.367720362496</v>
       </c>
       <c r="S33">
-        <v>0.001433185358629356</v>
+        <v>0.001115317141493749</v>
       </c>
       <c r="T33">
-        <v>0.001433185358629355</v>
+        <v>0.001115317141493749</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H34">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I34">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J34">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N34">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q34">
-        <v>5986.759004939377</v>
+        <v>6139.000630830785</v>
       </c>
       <c r="R34">
-        <v>53880.83104445438</v>
+        <v>55251.00567747706</v>
       </c>
       <c r="S34">
-        <v>0.01394622130564916</v>
+        <v>0.01182461054822135</v>
       </c>
       <c r="T34">
-        <v>0.01394622130564916</v>
+        <v>0.01182461054822135</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H35">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I35">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J35">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N35">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O35">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P35">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q35">
-        <v>92.72101260899335</v>
+        <v>66.61975343306187</v>
       </c>
       <c r="R35">
-        <v>834.4891134809401</v>
+        <v>599.577780897557</v>
       </c>
       <c r="S35">
-        <v>0.0002159946242135401</v>
+        <v>0.0001283193611690317</v>
       </c>
       <c r="T35">
-        <v>0.0002159946242135401</v>
+        <v>0.0001283193611690317</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H36">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I36">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J36">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N36">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O36">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P36">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q36">
-        <v>12503.72291815454</v>
+        <v>12866.01543266339</v>
       </c>
       <c r="R36">
-        <v>112533.5062633908</v>
+        <v>115794.1388939705</v>
       </c>
       <c r="S36">
-        <v>0.02912756080831524</v>
+        <v>0.02478182214782764</v>
       </c>
       <c r="T36">
-        <v>0.02912756080831524</v>
+        <v>0.02478182214782764</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.66430533333334</v>
+        <v>59.91942366666666</v>
       </c>
       <c r="H37">
-        <v>190.992916</v>
+        <v>179.758271</v>
       </c>
       <c r="I37">
-        <v>0.06064614616454483</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="J37">
-        <v>0.06064614616454482</v>
+        <v>0.04651331675146277</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N37">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q37">
-        <v>6275.466167458533</v>
+        <v>3611.146889002679</v>
       </c>
       <c r="R37">
-        <v>56479.1955071268</v>
+        <v>32500.32200102411</v>
       </c>
       <c r="S37">
-        <v>0.01461876783336077</v>
+        <v>0.006955595570463261</v>
       </c>
       <c r="T37">
-        <v>0.01461876783336077</v>
+        <v>0.006955595570463261</v>
       </c>
     </row>
   </sheetData>
